--- a/biology/Médecine/Trigone_submental/Trigone_submental.xlsx
+++ b/biology/Médecine/Trigone_submental/Trigone_submental.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trigone submental (ou région sousmentale ou  région sushyoïdienne médiane) est une division du région cervicale antérieure.
 </t>
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le trigone submental est limité à :
 Latéralement par le ventre antérieur du muscle digastrique ;
@@ -545,7 +559,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le trigone submental contient plusieurs ganglions lymphatiques dont les nœuds lymphatiques submentaux, les veines sous-mentales et le début des veines jugulaires antérieures.
 </t>
@@ -576,10 +592,12 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le trigone submental peut être envahi par la propagation d'infections des dents antérieures mandibulaires[1]. Son infection peut également être une conséquence d'infections cutanées ou d'une fracture mandibulaire à proximité la symphyse de la mandibule. Une infection de cette zone se manifeste par un gonflement ferme sous le menton et une dysphagie. Le traitement repose sur une incision chirurgicale et un drainage, l'incision s'étendant transversalement dans un pli cutané derrière le menton.
-L'angine de Ludwig est une cellulite progressive impliquant bilatéralement les espaces sous-mandibulaire, sublingual et submental. L'angine de Ludwig peut s'étendre dans les espaces pharyngé et cervical, et le gonflement peut comprimer les voies respiratoires et provoquer une dyspnée[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le trigone submental peut être envahi par la propagation d'infections des dents antérieures mandibulaires. Son infection peut également être une conséquence d'infections cutanées ou d'une fracture mandibulaire à proximité la symphyse de la mandibule. Une infection de cette zone se manifeste par un gonflement ferme sous le menton et une dysphagie. Le traitement repose sur une incision chirurgicale et un drainage, l'incision s'étendant transversalement dans un pli cutané derrière le menton.
+L'angine de Ludwig est une cellulite progressive impliquant bilatéralement les espaces sous-mandibulaire, sublingual et submental. L'angine de Ludwig peut s'étendre dans les espaces pharyngé et cervical, et le gonflement peut comprimer les voies respiratoires et provoquer une dyspnée.
 </t>
         </is>
       </c>
